--- a/topic_split/topic_12.xlsx
+++ b/topic_split/topic_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>issue</t>
   </si>
@@ -22,48 +22,29 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[2.20397042e-308 2.05076958e-308 1.17419065e-307 1.99877367e-308
- 3.71452791e-308 3.23313052e-308 4.24342457e-308 4.26673900e-308
- 1.72464245e-307 3.22955077e-308 5.68962509e-308 1.00000000e+000
- 6.75301319e-308 2.54689909e-308 3.75678473e-308 3.62090183e-308
- 3.00070522e-308 3.32007728e-308 4.40278412e-308 3.92056828e-308
- 1.12778370e-307 3.76565155e-308 5.57970519e-308 3.31706884e-308
- 1.11229641e-307]</t>
-  </si>
-  <si>
-    <t>[0.00743625 0.00668164 0.03477965 0.00651081 0.01255032 0.0110134
- 0.01452243 0.01462895 0.05278875 0.01103029 0.02022024 0.20876297
- 0.02342049 0.0083401  0.01281791 0.01247922 0.01024038 0.0112712
- 0.01543056 0.01358133 0.03781989 0.01305836 0.0193476  0.01136078
- 0.04360338]</t>
-  </si>
-  <si>
-    <t>[0.00577648 0.00558171 0.04494527 0.00546509 0.00965666 0.00830981
- 0.01056771 0.01072152 0.03872375 0.00827042 0.01354537 0.09672069
- 0.01648682 0.00686028 0.00949381 0.00915395 0.0076989  0.00847657
- 0.01085392 0.00981431 0.02946353 0.00943097 0.01406775 0.00846508
- 0.02371946]</t>
-  </si>
-  <si>
-    <t>[2.16050592e-308 2.02888967e-308 1.21901374e-307 1.97770765e-308
- 3.67429778e-308 3.17137323e-308 4.12616834e-308 4.16922196e-308
- 1.72879549e-307 3.12677021e-308 5.46660358e-308 1.00000000e+000
- 6.48116437e-308 2.51001713e-308 3.66810510e-308 3.49526763e-308
- 2.93267664e-308 3.24384513e-308 4.22405987e-308 3.77253515e-308
- 1.10999697e-307 3.64361964e-308 5.41504305e-308 3.20815549e-308
- 1.00375956e-307]</t>
-  </si>
-  <si>
-    <t>[2.19167903e-308 2.08568130e-308 1.15316493e-307 2.03152862e-308
- 3.62734466e-308 3.19451658e-308 4.28576030e-308 4.24833933e-308
- 1.84653734e-307 3.23841070e-308 5.64378116e-308 1.00000000e+000
- 6.89688884e-308 2.59835352e-308 3.76272516e-308 3.61551740e-308
- 2.97593232e-308 3.33244885e-308 4.38789870e-308 3.93210957e-308
- 1.10347362e-307 3.74360263e-308 5.54472144e-308 3.33008418e-308
- 1.12297511e-307]</t>
+    <t>Overall dropdown style - Main nav
+Double check the designs of other nav items with the latest in [Figma](https://www.figma.com/file/u0XifdJwTEx165x3e0eoP9/IFRC-GO_UI-Prototype?type=design&amp;node-id=15165-194103&amp;mode=design&amp;t=xlj8Qk4KtKHrILQk-4). Note the gray area and removal of button style, replacing with red to highlight the forms. Arrow to show the selected one and hovers are missing. Lastly, check the spacings with the design and placement of the title (e.g. Surge Deployment should be on the left and not right and IFRC gray 50% in color). In some cases the title is not there at all.
+Also double check the gray text size styling from [Figma](https://www.figma.com/file/u0XifdJwTEx165x3e0eoP9/IFRC-GO_UI-Prototype?type=design&amp;node-id=13538-211837&amp;mode=design&amp;t=xlj8Qk4KtKHrILQk-4) (Light font, black).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlighted emergency cards interaction - Homepage
+Can we have the entire card on hover and clickable and not just the title? Also, no need to separate between targeted population link and main link. Entire card should go to the emergency (hover on title not needed, but on the card).
+</t>
+  </si>
+  <si>
+    <t>Nav main item stylings - Main nav
+In the main menu, the selected section should be in black and there should be a red underline beneath it, with a height of 2px, per design in [Figma](https://www.figma.com/proto/u0XifdJwTEx165x3e0eoP9/IFRC-GO_UI-Prototype?page-id=8129%3A139296&amp;type=design&amp;node-id=11799-199409&amp;viewport=701%2C-525%2C0.32&amp;t=KCzNlJAFuYpLVoHV-1&amp;scaling=scale-down-width&amp;starting-point-node-id=8140%3A139297&amp;show-proto-sidebar=1&amp;mode=design). 
+When a section is chosen and expanded in the main menu, the selected section is not visible, and the selection remains on the "Home" section.</t>
+  </si>
+  <si>
+    <t>Ability to track API requests and their source
+This ticket covers the frontend part of https://github.com/IFRCGo/go-api/issues/2069 task.
+(Mainly adding {'X-Request-Source': 'frontend-app' } to the headers in [app/src/utils/restRequest/go.ts](https://github.com/IFRCGo/go-web-app/blob/develop/app/src/utils/restRequest/go.ts#L198).)
+Can have some overlapping parts with https://github.com/IFRCGo/go-web-app/issues/750.</t>
+  </si>
+  <si>
+    <t>Write stories for DismissableListOutput, DismissableMultListOutput and DismissableTextOutput component
+Please create a new branch from `feature/ops-learning-excerpts-export`, as the components have already been added to that branch.</t>
   </si>
 </sst>
 </file>
@@ -421,76 +402,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>20</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>59</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>67</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>201</v>
       </c>
       <c r="B6">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
